--- a/PBNT_12_V_timing_output_load_2p_post_v2_tsmc3eff_meas.xlsx
+++ b/PBNT_12_V_timing_output_load_2p_post_v2_tsmc3eff_meas.xlsx
@@ -643,13 +643,13 @@
         <v>50</v>
       </c>
       <c r="Q2">
-        <v>41.0014</v>
+        <v>40.4436</v>
       </c>
       <c r="R2">
-        <v>46.9538</v>
+        <v>47.2869</v>
       </c>
       <c r="S2">
-        <v>50.8011</v>
+        <v>50.7958</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -696,13 +696,13 @@
         <v>50</v>
       </c>
       <c r="Q3">
-        <v>41.0014</v>
+        <v>40.4436</v>
       </c>
       <c r="R3">
-        <v>46.9538</v>
+        <v>47.2869</v>
       </c>
       <c r="S3">
-        <v>50.8011</v>
+        <v>50.7958</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -749,13 +749,13 @@
         <v>50</v>
       </c>
       <c r="Q4">
-        <v>36.7795</v>
+        <v>35.6863</v>
       </c>
       <c r="R4">
-        <v>39.1688</v>
+        <v>38.6863</v>
       </c>
       <c r="S4">
-        <v>50.6126</v>
+        <v>50.6054</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -802,13 +802,13 @@
         <v>50</v>
       </c>
       <c r="Q5">
-        <v>36.7795</v>
+        <v>35.6863</v>
       </c>
       <c r="R5">
-        <v>39.1688</v>
+        <v>38.6863</v>
       </c>
       <c r="S5">
-        <v>50.6126</v>
+        <v>50.6054</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -855,13 +855,13 @@
         <v>50</v>
       </c>
       <c r="Q6">
-        <v>52.0305</v>
+        <v>53.7057</v>
       </c>
       <c r="R6">
-        <v>70.5133</v>
+        <v>68.8935</v>
       </c>
       <c r="S6">
-        <v>51.3336</v>
+        <v>51.3707</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -908,13 +908,13 @@
         <v>50</v>
       </c>
       <c r="Q7">
-        <v>52.0305</v>
+        <v>53.7057</v>
       </c>
       <c r="R7">
-        <v>70.5133</v>
+        <v>68.8935</v>
       </c>
       <c r="S7">
-        <v>51.3336</v>
+        <v>51.3707</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1">
@@ -990,13 +990,13 @@
         <v>50</v>
       </c>
       <c r="Q9" s="1">
-        <v>36.7795</v>
+        <v>35.6863</v>
       </c>
       <c r="R9" s="1">
-        <v>39.1688</v>
+        <v>38.6863</v>
       </c>
       <c r="S9" s="1">
-        <v>50.6126</v>
+        <v>50.6054</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1">
@@ -1013,13 +1013,13 @@
         <v>50</v>
       </c>
       <c r="Q10" s="1">
-        <v>52.0305</v>
+        <v>53.7057</v>
       </c>
       <c r="R10" s="1">
-        <v>70.5133</v>
+        <v>68.8935</v>
       </c>
       <c r="S10" s="1">
-        <v>51.3336</v>
+        <v>51.3707</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1">
@@ -1056,13 +1056,13 @@
         <v>50</v>
       </c>
       <c r="Q15" s="1">
-        <v>43.27046666666666</v>
+        <v>43.27853333333334</v>
       </c>
       <c r="R15" s="1">
-        <v>52.21196666666668</v>
+        <v>51.62223333333335</v>
       </c>
       <c r="S15" s="1">
-        <v>50.91576666666666</v>
+        <v>50.92396666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1">
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.429605892708786</v>
+        <v>7.624623677853807</v>
       </c>
       <c r="R16" s="1">
-        <v>13.32555583789618</v>
+        <v>12.70734877392693</v>
       </c>
       <c r="S16" s="1">
-        <v>0.305310315726292</v>
+        <v>0.3253111775242612</v>
       </c>
     </row>
     <row r="17" spans="13:19" s="1" customFormat="1">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.85910919851905</v>
+        <v>17.61756485398567</v>
       </c>
       <c r="R17" s="1">
-        <v>25.52203391029038</v>
+        <v>24.61603838771071</v>
       </c>
       <c r="S17" s="1">
-        <v>0.5996380604952598</v>
+        <v>0.6388174347329473</v>
       </c>
     </row>
     <row r="18" spans="13:19" s="1" customFormat="1"/>
